--- a/rangkupam.xlsx
+++ b/rangkupam.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE7AEE4-1801-4DE1-BB92-4CE0CE0F198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F69D15C-FB42-4738-812B-6B7EA8A3A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="model awal" sheetId="1" r:id="rId1"/>
+    <sheet name="hyperparameter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Model 1</t>
   </si>
@@ -81,6 +82,138 @@
   </si>
   <si>
     <t>416 !augmentasi</t>
+  </si>
+  <si>
+    <t>n/s/m/l/x</t>
+  </si>
+  <si>
+    <t>imgsz</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>lr0</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>weight decay</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Hasil</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>Max epoch</t>
+  </si>
+  <si>
+    <t>mAP50</t>
+  </si>
+  <si>
+    <t>Best Epoch</t>
+  </si>
+  <si>
+    <t>ukuran dataset</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>AdamW</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>Time/Hours</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>0.878</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.852</t>
+  </si>
+  <si>
+    <t>0.869</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.859</t>
+  </si>
+  <si>
+    <t>0.833</t>
+  </si>
+  <si>
+    <t>0.864</t>
+  </si>
+  <si>
+    <t>0.861</t>
+  </si>
+  <si>
+    <t>Semakin besar nilai decay, semakin optimal laju pembelajaran</t>
+  </si>
+  <si>
+    <t>Semakin besar nilai momentum, semakin cepat proses optimasi</t>
   </si>
 </sst>
 </file>
@@ -108,18 +241,76 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -128,11 +319,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -486,11 +718,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
@@ -605,4 +837,481 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F24B3-4B99-49F3-AA16-7769F65F4673}">
+  <dimension ref="B3:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8">
+        <v>640</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="9">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="5">
+        <v>200</v>
+      </c>
+      <c r="K5" s="8">
+        <v>608</v>
+      </c>
+      <c r="M5" s="8">
+        <v>168</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="11">
+        <v>4655</v>
+      </c>
+      <c r="P5" s="8">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8">
+        <v>240</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="9">
+        <v>416</v>
+      </c>
+      <c r="M6" s="8">
+        <v>173</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1352</v>
+      </c>
+      <c r="P6" s="8">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9">
+        <v>256</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="12"/>
+      <c r="M7" s="8">
+        <v>172</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1375</v>
+      </c>
+      <c r="P7" s="8">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="12"/>
+      <c r="M8" s="8">
+        <v>116</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="11">
+        <v>1010</v>
+      </c>
+      <c r="P8" s="8">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="12"/>
+      <c r="M9" s="13">
+        <v>143</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="14">
+        <v>1407</v>
+      </c>
+      <c r="P9" s="13">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="12"/>
+      <c r="M10" s="8">
+        <v>195</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="11">
+        <v>2665</v>
+      </c>
+      <c r="P10" s="8">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="12"/>
+      <c r="M11" s="8">
+        <v>67</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8">
+        <v>48</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="12"/>
+      <c r="M12" s="8">
+        <v>115</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="8">
+        <v>65</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9">
+        <v>16</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="12"/>
+      <c r="M13" s="8">
+        <v>159</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="11">
+        <v>1232</v>
+      </c>
+      <c r="P13" s="8">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="10"/>
+      <c r="M14" s="8">
+        <v>172</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1331</v>
+      </c>
+      <c r="P14" s="8">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D7:D14"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H6:H14"/>
+    <mergeCell ref="G5:G11"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rangkupam.xlsx
+++ b/rangkupam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F69D15C-FB42-4738-812B-6B7EA8A3A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31EC19-614B-4016-AFD3-6105B10DC4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -319,12 +317,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,23 +330,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -360,11 +340,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,11 +713,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
@@ -844,7 +839,7 @@
   <dimension ref="B3:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -869,431 +864,439 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="3">
         <v>640</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="12">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="15">
         <v>200</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="3">
         <v>608</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="3">
         <v>168</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="6">
         <v>4655</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="3">
         <v>118</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="9">
+      <c r="J6" s="15"/>
+      <c r="K6" s="12">
         <v>416</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="3">
         <v>173</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="6">
         <v>1352</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="3">
         <v>123</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12">
         <v>256</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="12"/>
-      <c r="M7" s="8">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="13"/>
+      <c r="M7" s="3">
         <v>172</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="6">
         <v>1375</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="3">
         <v>122</v>
       </c>
-      <c r="Q7" s="8" t="s">
+      <c r="Q7" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="12"/>
-      <c r="M8" s="8">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="13"/>
+      <c r="M8" s="3">
         <v>116</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="6">
         <v>1010</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="3">
         <v>66</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
+      <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="12"/>
-      <c r="M9" s="13">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="7">
         <v>143</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="8">
         <v>1407</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="7">
         <v>93</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="12"/>
-      <c r="M10" s="8">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="M10" s="3">
         <v>195</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="6">
         <v>2665</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="3">
         <v>145</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="12"/>
-      <c r="M11" s="8">
+      <c r="J11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="M11" s="3">
         <v>67</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="3">
         <v>17</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="8">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="12"/>
-      <c r="M12" s="8">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="M12" s="3">
         <v>115</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="3">
         <v>65</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9">
+      <c r="F13" s="13"/>
+      <c r="G13" s="12">
         <v>16</v>
       </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="12"/>
-      <c r="M13" s="8">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="M13" s="3">
         <v>159</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="6">
         <v>1232</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="3">
         <v>109</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="10"/>
-      <c r="M14" s="8">
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
+      <c r="M14" s="3">
         <v>172</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="6">
         <v>1331</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="3">
         <v>122</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="3">
         <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -1303,14 +1306,6 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rangkupam.xlsx
+++ b/rangkupam.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31EC19-614B-4016-AFD3-6105B10DC4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23F312-B503-4E6C-954E-EB3AD633B528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
     <sheet name="hyperparameter" sheetId="2" r:id="rId2"/>
+    <sheet name="Hyperparameter 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>Model 1</t>
   </si>
@@ -212,6 +213,60 @@
   </si>
   <si>
     <t>Semakin besar nilai momentum, semakin cepat proses optimasi</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>16 - 0.88061</t>
+  </si>
+  <si>
+    <t>train2</t>
+  </si>
+  <si>
+    <t>train3</t>
+  </si>
+  <si>
+    <t>train4</t>
+  </si>
+  <si>
+    <t>train5</t>
+  </si>
+  <si>
+    <t>train6</t>
+  </si>
+  <si>
+    <t>train7</t>
+  </si>
+  <si>
+    <t>train8</t>
+  </si>
+  <si>
+    <t>train9</t>
+  </si>
+  <si>
+    <t>train10</t>
+  </si>
+  <si>
+    <t>150 - 0.87703</t>
+  </si>
+  <si>
+    <t>85 - 0,88135</t>
+  </si>
+  <si>
+    <t>78 - 0,88275</t>
+  </si>
+  <si>
+    <t>147 - 0,87795</t>
+  </si>
+  <si>
+    <t>59 - 0,87651</t>
+  </si>
+  <si>
+    <t>16 - 0,88161</t>
+  </si>
+  <si>
+    <t>150 - 0,87703</t>
   </si>
 </sst>
 </file>
@@ -343,8 +398,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,11 +413,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
   <dimension ref="E2:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="F2" zoomScale="190" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -838,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F24B3-4B99-49F3-AA16-7769F65F4673}">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -864,28 +919,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="M3" s="15" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -945,7 +1000,7 @@
       <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="13">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -954,7 +1009,7 @@
       <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="12">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -980,27 +1035,27 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="12">
+      <c r="J6" s="12"/>
+      <c r="K6" s="13">
         <v>416</v>
       </c>
       <c r="M6" s="3">
@@ -1023,17 +1078,17 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12">
+      <c r="C7" s="15"/>
+      <c r="D7" s="13">
         <v>256</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
       <c r="M7" s="3">
         <v>172</v>
       </c>
@@ -1057,14 +1112,14 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
       <c r="M8" s="3">
         <v>116</v>
       </c>
@@ -1088,14 +1143,14 @@
       <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14"/>
       <c r="M9" s="7">
         <v>143</v>
       </c>
@@ -1119,14 +1174,14 @@
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="14"/>
       <c r="M10" s="3">
         <v>195</v>
       </c>
@@ -1147,19 +1202,19 @@
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="12" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="14"/>
       <c r="M11" s="3">
         <v>67</v>
       </c>
@@ -1180,17 +1235,17 @@
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="14"/>
       <c r="M12" s="3">
         <v>115</v>
       </c>
@@ -1211,19 +1266,19 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13">
         <v>16</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="14"/>
       <c r="M13" s="3">
         <v>159</v>
       </c>
@@ -1244,19 +1299,19 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="15"/>
       <c r="M14" s="3">
         <v>172</v>
       </c>
@@ -1274,29 +1329,21 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="K6:K14"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="I6:I10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J5:J14"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="I11:I13"/>
@@ -1306,7 +1353,111 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="G5:G11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="K6:K14"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J5:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD77E0C-9EB7-44BD-A32D-577740A52A05}">
+  <dimension ref="D6:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rangkupam.xlsx
+++ b/rangkupam.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23F312-B503-4E6C-954E-EB3AD633B528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C7B8C-3156-43B3-A72D-081721CA6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
     <sheet name="hyperparameter" sheetId="2" r:id="rId2"/>
-    <sheet name="Hyperparameter 2" sheetId="3" r:id="rId3"/>
+    <sheet name="hyperparameter2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>Model 1</t>
   </si>
@@ -213,60 +213,6 @@
   </si>
   <si>
     <t>Semakin besar nilai momentum, semakin cepat proses optimasi</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>16 - 0.88061</t>
-  </si>
-  <si>
-    <t>train2</t>
-  </si>
-  <si>
-    <t>train3</t>
-  </si>
-  <si>
-    <t>train4</t>
-  </si>
-  <si>
-    <t>train5</t>
-  </si>
-  <si>
-    <t>train6</t>
-  </si>
-  <si>
-    <t>train7</t>
-  </si>
-  <si>
-    <t>train8</t>
-  </si>
-  <si>
-    <t>train9</t>
-  </si>
-  <si>
-    <t>train10</t>
-  </si>
-  <si>
-    <t>150 - 0.87703</t>
-  </si>
-  <si>
-    <t>85 - 0,88135</t>
-  </si>
-  <si>
-    <t>78 - 0,88275</t>
-  </si>
-  <si>
-    <t>147 - 0,87795</t>
-  </si>
-  <si>
-    <t>59 - 0,87651</t>
-  </si>
-  <si>
-    <t>16 - 0,88161</t>
-  </si>
-  <si>
-    <t>150 - 0,87703</t>
   </si>
 </sst>
 </file>
@@ -372,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,6 +361,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,7 +724,7 @@
   <dimension ref="E2:M7"/>
   <sheetViews>
     <sheetView topLeftCell="F2" zoomScale="190" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,7 +865,7 @@
   <dimension ref="B3:Q18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,96 +1338,1708 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD77E0C-9EB7-44BD-A32D-577740A52A05}">
-  <dimension ref="D6:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB8005-5696-4015-A771-D6400CC063DD}">
+  <dimension ref="A4:AFZ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="4" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4">
+        <v>240</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>16</v>
+      </c>
+      <c r="J6" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L6" s="13">
+        <v>200</v>
+      </c>
+      <c r="M6" s="13">
+        <v>416</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="3">
+        <v>83</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>16</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.88061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="4">
+        <v>240</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="4">
+        <v>16</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3">
+        <v>199</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.87475000000000003</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>150</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.87702999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="4">
+        <v>240</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="4">
+        <v>32</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="3">
+        <v>103</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.87453000000000003</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>85</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.88134999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="4">
+        <v>240</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="4">
+        <v>32</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3">
+        <v>150</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.86726000000000003</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>78</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.88275000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="20">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="4">
+        <v>240</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="4">
+        <v>64</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="17">
+        <v>199</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>147</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0.87795000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="4">
+        <v>240</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="4">
+        <v>64</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3">
+        <v>114</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.85890999999999995</v>
+      </c>
+      <c r="Q11" s="3">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="R11" s="3">
+        <v>0.87651000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="4">
+        <v>256</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="4">
+        <v>16</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="3">
+        <v>83</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.85997999999999997</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>16</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.88161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4">
+        <v>256</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="4">
+        <v>16</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="3">
+        <v>199</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.87475000000000003</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>150</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.87702999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4">
+        <v>256</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="4">
+        <v>32</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="3">
+        <v>103</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.87453000000000003</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>85</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.88134999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:858" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="21">
+        <v>256</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="21">
+        <v>32</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="7">
+        <v>130</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.86785999999999996</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>78</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0.88275000000000003</v>
+      </c>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="23"/>
+      <c r="AK15" s="23"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="23"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="23"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="23"/>
+      <c r="BN15" s="23"/>
+      <c r="BO15" s="23"/>
+      <c r="BP15" s="23"/>
+      <c r="BQ15" s="23"/>
+      <c r="BR15" s="23"/>
+      <c r="BS15" s="23"/>
+      <c r="BT15" s="23"/>
+      <c r="BU15" s="23"/>
+      <c r="BV15" s="23"/>
+      <c r="BW15" s="23"/>
+      <c r="BX15" s="23"/>
+      <c r="BY15" s="23"/>
+      <c r="BZ15" s="23"/>
+      <c r="CA15" s="23"/>
+      <c r="CB15" s="23"/>
+      <c r="CC15" s="23"/>
+      <c r="CD15" s="23"/>
+      <c r="CE15" s="23"/>
+      <c r="CF15" s="23"/>
+      <c r="CG15" s="23"/>
+      <c r="CH15" s="23"/>
+      <c r="CI15" s="23"/>
+      <c r="CJ15" s="23"/>
+      <c r="CK15" s="23"/>
+      <c r="CL15" s="23"/>
+      <c r="CM15" s="23"/>
+      <c r="CN15" s="23"/>
+      <c r="CO15" s="23"/>
+      <c r="CP15" s="23"/>
+      <c r="CQ15" s="23"/>
+      <c r="CR15" s="23"/>
+      <c r="CS15" s="23"/>
+      <c r="CT15" s="23"/>
+      <c r="CU15" s="23"/>
+      <c r="CV15" s="23"/>
+      <c r="CW15" s="23"/>
+      <c r="CX15" s="23"/>
+      <c r="CY15" s="23"/>
+      <c r="CZ15" s="23"/>
+      <c r="DA15" s="23"/>
+      <c r="DB15" s="23"/>
+      <c r="DC15" s="23"/>
+      <c r="DD15" s="23"/>
+      <c r="DE15" s="23"/>
+      <c r="DF15" s="23"/>
+      <c r="DG15" s="23"/>
+      <c r="DH15" s="23"/>
+      <c r="DI15" s="23"/>
+      <c r="DJ15" s="23"/>
+      <c r="DK15" s="23"/>
+      <c r="DL15" s="23"/>
+      <c r="DM15" s="23"/>
+      <c r="DN15" s="23"/>
+      <c r="DO15" s="23"/>
+      <c r="DP15" s="23"/>
+      <c r="DQ15" s="23"/>
+      <c r="DR15" s="23"/>
+      <c r="DS15" s="23"/>
+      <c r="DT15" s="23"/>
+      <c r="DU15" s="23"/>
+      <c r="DV15" s="23"/>
+      <c r="DW15" s="23"/>
+      <c r="DX15" s="23"/>
+      <c r="DY15" s="23"/>
+      <c r="DZ15" s="23"/>
+      <c r="EA15" s="23"/>
+      <c r="EB15" s="23"/>
+      <c r="EC15" s="23"/>
+      <c r="ED15" s="23"/>
+      <c r="EE15" s="23"/>
+      <c r="EF15" s="23"/>
+      <c r="EG15" s="23"/>
+      <c r="EH15" s="23"/>
+      <c r="EI15" s="23"/>
+      <c r="EJ15" s="23"/>
+      <c r="EK15" s="23"/>
+      <c r="EL15" s="23"/>
+      <c r="EM15" s="23"/>
+      <c r="EN15" s="23"/>
+      <c r="EO15" s="23"/>
+      <c r="EP15" s="23"/>
+      <c r="EQ15" s="23"/>
+      <c r="ER15" s="23"/>
+      <c r="ES15" s="23"/>
+      <c r="ET15" s="23"/>
+      <c r="EU15" s="23"/>
+      <c r="EV15" s="23"/>
+      <c r="EW15" s="23"/>
+      <c r="EX15" s="23"/>
+      <c r="EY15" s="23"/>
+      <c r="EZ15" s="23"/>
+      <c r="FA15" s="23"/>
+      <c r="FB15" s="23"/>
+      <c r="FC15" s="23"/>
+      <c r="FD15" s="23"/>
+      <c r="FE15" s="23"/>
+      <c r="FF15" s="23"/>
+      <c r="FG15" s="23"/>
+      <c r="FH15" s="23"/>
+      <c r="FI15" s="23"/>
+      <c r="FJ15" s="23"/>
+      <c r="FK15" s="23"/>
+      <c r="FL15" s="23"/>
+      <c r="FM15" s="23"/>
+      <c r="FN15" s="23"/>
+      <c r="FO15" s="23"/>
+      <c r="FP15" s="23"/>
+      <c r="FQ15" s="23"/>
+      <c r="FR15" s="23"/>
+      <c r="FS15" s="23"/>
+      <c r="FT15" s="23"/>
+      <c r="FU15" s="23"/>
+      <c r="FV15" s="23"/>
+      <c r="FW15" s="23"/>
+      <c r="FX15" s="23"/>
+      <c r="FY15" s="23"/>
+      <c r="FZ15" s="23"/>
+      <c r="GA15" s="23"/>
+      <c r="GB15" s="23"/>
+      <c r="GC15" s="23"/>
+      <c r="GD15" s="23"/>
+      <c r="GE15" s="23"/>
+      <c r="GF15" s="23"/>
+      <c r="GG15" s="23"/>
+      <c r="GH15" s="23"/>
+      <c r="GI15" s="23"/>
+      <c r="GJ15" s="23"/>
+      <c r="GK15" s="23"/>
+      <c r="GL15" s="23"/>
+      <c r="GM15" s="23"/>
+      <c r="GN15" s="23"/>
+      <c r="GO15" s="23"/>
+      <c r="GP15" s="23"/>
+      <c r="GQ15" s="23"/>
+      <c r="GR15" s="23"/>
+      <c r="GS15" s="23"/>
+      <c r="GT15" s="23"/>
+      <c r="GU15" s="23"/>
+      <c r="GV15" s="23"/>
+      <c r="GW15" s="23"/>
+      <c r="GX15" s="23"/>
+      <c r="GY15" s="23"/>
+      <c r="GZ15" s="23"/>
+      <c r="HA15" s="23"/>
+      <c r="HB15" s="23"/>
+      <c r="HC15" s="23"/>
+      <c r="HD15" s="23"/>
+      <c r="HE15" s="23"/>
+      <c r="HF15" s="23"/>
+      <c r="HG15" s="23"/>
+      <c r="HH15" s="23"/>
+      <c r="HI15" s="23"/>
+      <c r="HJ15" s="23"/>
+      <c r="HK15" s="23"/>
+      <c r="HL15" s="23"/>
+      <c r="HM15" s="23"/>
+      <c r="HN15" s="23"/>
+      <c r="HO15" s="23"/>
+      <c r="HP15" s="23"/>
+      <c r="HQ15" s="23"/>
+      <c r="HR15" s="23"/>
+      <c r="HS15" s="23"/>
+      <c r="HT15" s="23"/>
+      <c r="HU15" s="23"/>
+      <c r="HV15" s="23"/>
+      <c r="HW15" s="23"/>
+      <c r="HX15" s="23"/>
+      <c r="HY15" s="23"/>
+      <c r="HZ15" s="23"/>
+      <c r="IA15" s="23"/>
+      <c r="IB15" s="23"/>
+      <c r="IC15" s="23"/>
+      <c r="ID15" s="23"/>
+      <c r="IE15" s="23"/>
+      <c r="IF15" s="23"/>
+      <c r="IG15" s="23"/>
+      <c r="IH15" s="23"/>
+      <c r="II15" s="23"/>
+      <c r="IJ15" s="23"/>
+      <c r="IK15" s="23"/>
+      <c r="IL15" s="23"/>
+      <c r="IM15" s="23"/>
+      <c r="IN15" s="23"/>
+      <c r="IO15" s="23"/>
+      <c r="IP15" s="23"/>
+      <c r="IQ15" s="23"/>
+      <c r="IR15" s="23"/>
+      <c r="IS15" s="23"/>
+      <c r="IT15" s="23"/>
+      <c r="IU15" s="23"/>
+      <c r="IV15" s="23"/>
+      <c r="IW15" s="23"/>
+      <c r="IX15" s="23"/>
+      <c r="IY15" s="23"/>
+      <c r="IZ15" s="23"/>
+      <c r="JA15" s="23"/>
+      <c r="JB15" s="23"/>
+      <c r="JC15" s="23"/>
+      <c r="JD15" s="23"/>
+      <c r="JE15" s="23"/>
+      <c r="JF15" s="23"/>
+      <c r="JG15" s="23"/>
+      <c r="JH15" s="23"/>
+      <c r="JI15" s="23"/>
+      <c r="JJ15" s="23"/>
+      <c r="JK15" s="23"/>
+      <c r="JL15" s="23"/>
+      <c r="JM15" s="23"/>
+      <c r="JN15" s="23"/>
+      <c r="JO15" s="23"/>
+      <c r="JP15" s="23"/>
+      <c r="JQ15" s="23"/>
+      <c r="JR15" s="23"/>
+      <c r="JS15" s="23"/>
+      <c r="JT15" s="23"/>
+      <c r="JU15" s="23"/>
+      <c r="JV15" s="23"/>
+      <c r="JW15" s="23"/>
+      <c r="JX15" s="23"/>
+      <c r="JY15" s="23"/>
+      <c r="JZ15" s="23"/>
+      <c r="KA15" s="23"/>
+      <c r="KB15" s="23"/>
+      <c r="KC15" s="23"/>
+      <c r="KD15" s="23"/>
+      <c r="KE15" s="23"/>
+      <c r="KF15" s="23"/>
+      <c r="KG15" s="23"/>
+      <c r="KH15" s="23"/>
+      <c r="KI15" s="23"/>
+      <c r="KJ15" s="23"/>
+      <c r="KK15" s="23"/>
+      <c r="KL15" s="23"/>
+      <c r="KM15" s="23"/>
+      <c r="KN15" s="23"/>
+      <c r="KO15" s="23"/>
+      <c r="KP15" s="23"/>
+      <c r="KQ15" s="23"/>
+      <c r="KR15" s="23"/>
+      <c r="KS15" s="23"/>
+      <c r="KT15" s="23"/>
+      <c r="KU15" s="23"/>
+      <c r="KV15" s="23"/>
+      <c r="KW15" s="23"/>
+      <c r="KX15" s="23"/>
+      <c r="KY15" s="23"/>
+      <c r="KZ15" s="23"/>
+      <c r="LA15" s="23"/>
+      <c r="LB15" s="23"/>
+      <c r="LC15" s="23"/>
+      <c r="LD15" s="23"/>
+      <c r="LE15" s="23"/>
+      <c r="LF15" s="23"/>
+      <c r="LG15" s="23"/>
+      <c r="LH15" s="23"/>
+      <c r="LI15" s="23"/>
+      <c r="LJ15" s="23"/>
+      <c r="LK15" s="23"/>
+      <c r="LL15" s="23"/>
+      <c r="LM15" s="23"/>
+      <c r="LN15" s="23"/>
+      <c r="LO15" s="23"/>
+      <c r="LP15" s="23"/>
+      <c r="LQ15" s="23"/>
+      <c r="LR15" s="23"/>
+      <c r="LS15" s="23"/>
+      <c r="LT15" s="23"/>
+      <c r="LU15" s="23"/>
+      <c r="LV15" s="23"/>
+      <c r="LW15" s="23"/>
+      <c r="LX15" s="23"/>
+      <c r="LY15" s="23"/>
+      <c r="LZ15" s="23"/>
+      <c r="MA15" s="23"/>
+      <c r="MB15" s="23"/>
+      <c r="MC15" s="23"/>
+      <c r="MD15" s="23"/>
+      <c r="ME15" s="23"/>
+      <c r="MF15" s="23"/>
+      <c r="MG15" s="23"/>
+      <c r="MH15" s="23"/>
+      <c r="MI15" s="23"/>
+      <c r="MJ15" s="23"/>
+      <c r="MK15" s="23"/>
+      <c r="ML15" s="23"/>
+      <c r="MM15" s="23"/>
+      <c r="MN15" s="23"/>
+      <c r="MO15" s="23"/>
+      <c r="MP15" s="23"/>
+      <c r="MQ15" s="23"/>
+      <c r="MR15" s="23"/>
+      <c r="MS15" s="23"/>
+      <c r="MT15" s="23"/>
+      <c r="MU15" s="23"/>
+      <c r="MV15" s="23"/>
+      <c r="MW15" s="23"/>
+      <c r="MX15" s="23"/>
+      <c r="MY15" s="23"/>
+      <c r="MZ15" s="23"/>
+      <c r="NA15" s="23"/>
+      <c r="NB15" s="23"/>
+      <c r="NC15" s="23"/>
+      <c r="ND15" s="23"/>
+      <c r="NE15" s="23"/>
+      <c r="NF15" s="23"/>
+      <c r="NG15" s="23"/>
+      <c r="NH15" s="23"/>
+      <c r="NI15" s="23"/>
+      <c r="NJ15" s="23"/>
+      <c r="NK15" s="23"/>
+      <c r="NL15" s="23"/>
+      <c r="NM15" s="23"/>
+      <c r="NN15" s="23"/>
+      <c r="NO15" s="23"/>
+      <c r="NP15" s="23"/>
+      <c r="NQ15" s="23"/>
+      <c r="NR15" s="23"/>
+      <c r="NS15" s="23"/>
+      <c r="NT15" s="23"/>
+      <c r="NU15" s="23"/>
+      <c r="NV15" s="23"/>
+      <c r="NW15" s="23"/>
+      <c r="NX15" s="23"/>
+      <c r="NY15" s="23"/>
+      <c r="NZ15" s="23"/>
+      <c r="OA15" s="23"/>
+      <c r="OB15" s="23"/>
+      <c r="OC15" s="23"/>
+      <c r="OD15" s="23"/>
+      <c r="OE15" s="23"/>
+      <c r="OF15" s="23"/>
+      <c r="OG15" s="23"/>
+      <c r="OH15" s="23"/>
+      <c r="OI15" s="23"/>
+      <c r="OJ15" s="23"/>
+      <c r="OK15" s="23"/>
+      <c r="OL15" s="23"/>
+      <c r="OM15" s="23"/>
+      <c r="ON15" s="23"/>
+      <c r="OO15" s="23"/>
+      <c r="OP15" s="23"/>
+      <c r="OQ15" s="23"/>
+      <c r="OR15" s="23"/>
+      <c r="OS15" s="23"/>
+      <c r="OT15" s="23"/>
+      <c r="OU15" s="23"/>
+      <c r="OV15" s="23"/>
+      <c r="OW15" s="23"/>
+      <c r="OX15" s="23"/>
+      <c r="OY15" s="23"/>
+      <c r="OZ15" s="23"/>
+      <c r="PA15" s="23"/>
+      <c r="PB15" s="23"/>
+      <c r="PC15" s="23"/>
+      <c r="PD15" s="23"/>
+      <c r="PE15" s="23"/>
+      <c r="PF15" s="23"/>
+      <c r="PG15" s="23"/>
+      <c r="PH15" s="23"/>
+      <c r="PI15" s="23"/>
+      <c r="PJ15" s="23"/>
+      <c r="PK15" s="23"/>
+      <c r="PL15" s="23"/>
+      <c r="PM15" s="23"/>
+      <c r="PN15" s="23"/>
+      <c r="PO15" s="23"/>
+      <c r="PP15" s="23"/>
+      <c r="PQ15" s="23"/>
+      <c r="PR15" s="23"/>
+      <c r="PS15" s="23"/>
+      <c r="PT15" s="23"/>
+      <c r="PU15" s="23"/>
+      <c r="PV15" s="23"/>
+      <c r="PW15" s="23"/>
+      <c r="PX15" s="23"/>
+      <c r="PY15" s="23"/>
+      <c r="PZ15" s="23"/>
+      <c r="QA15" s="23"/>
+      <c r="QB15" s="23"/>
+      <c r="QC15" s="23"/>
+      <c r="QD15" s="23"/>
+      <c r="QE15" s="23"/>
+      <c r="QF15" s="23"/>
+      <c r="QG15" s="23"/>
+      <c r="QH15" s="23"/>
+      <c r="QI15" s="23"/>
+      <c r="QJ15" s="23"/>
+      <c r="QK15" s="23"/>
+      <c r="QL15" s="23"/>
+      <c r="QM15" s="23"/>
+      <c r="QN15" s="23"/>
+      <c r="QO15" s="23"/>
+      <c r="QP15" s="23"/>
+      <c r="QQ15" s="23"/>
+      <c r="QR15" s="23"/>
+      <c r="QS15" s="23"/>
+      <c r="QT15" s="23"/>
+      <c r="QU15" s="23"/>
+      <c r="QV15" s="23"/>
+      <c r="QW15" s="23"/>
+      <c r="QX15" s="23"/>
+      <c r="QY15" s="23"/>
+      <c r="QZ15" s="23"/>
+      <c r="RA15" s="23"/>
+      <c r="RB15" s="23"/>
+      <c r="RC15" s="23"/>
+      <c r="RD15" s="23"/>
+      <c r="RE15" s="23"/>
+      <c r="RF15" s="23"/>
+      <c r="RG15" s="23"/>
+      <c r="RH15" s="23"/>
+      <c r="RI15" s="23"/>
+      <c r="RJ15" s="23"/>
+      <c r="RK15" s="23"/>
+      <c r="RL15" s="23"/>
+      <c r="RM15" s="23"/>
+      <c r="RN15" s="23"/>
+      <c r="RO15" s="23"/>
+      <c r="RP15" s="23"/>
+      <c r="RQ15" s="23"/>
+      <c r="RR15" s="23"/>
+      <c r="RS15" s="23"/>
+      <c r="RT15" s="23"/>
+      <c r="RU15" s="23"/>
+      <c r="RV15" s="23"/>
+      <c r="RW15" s="23"/>
+      <c r="RX15" s="23"/>
+      <c r="RY15" s="23"/>
+      <c r="RZ15" s="23"/>
+      <c r="SA15" s="23"/>
+      <c r="SB15" s="23"/>
+      <c r="SC15" s="23"/>
+      <c r="SD15" s="23"/>
+      <c r="SE15" s="23"/>
+      <c r="SF15" s="23"/>
+      <c r="SG15" s="23"/>
+      <c r="SH15" s="23"/>
+      <c r="SI15" s="23"/>
+      <c r="SJ15" s="23"/>
+      <c r="SK15" s="23"/>
+      <c r="SL15" s="23"/>
+      <c r="SM15" s="23"/>
+      <c r="SN15" s="23"/>
+      <c r="SO15" s="23"/>
+      <c r="SP15" s="23"/>
+      <c r="SQ15" s="23"/>
+      <c r="SR15" s="23"/>
+      <c r="SS15" s="23"/>
+      <c r="ST15" s="23"/>
+      <c r="SU15" s="23"/>
+      <c r="SV15" s="23"/>
+      <c r="SW15" s="23"/>
+      <c r="SX15" s="23"/>
+      <c r="SY15" s="23"/>
+      <c r="SZ15" s="23"/>
+      <c r="TA15" s="23"/>
+      <c r="TB15" s="23"/>
+      <c r="TC15" s="23"/>
+      <c r="TD15" s="23"/>
+      <c r="TE15" s="23"/>
+      <c r="TF15" s="23"/>
+      <c r="TG15" s="23"/>
+      <c r="TH15" s="23"/>
+      <c r="TI15" s="23"/>
+      <c r="TJ15" s="23"/>
+      <c r="TK15" s="23"/>
+      <c r="TL15" s="23"/>
+      <c r="TM15" s="23"/>
+      <c r="TN15" s="23"/>
+      <c r="TO15" s="23"/>
+      <c r="TP15" s="23"/>
+      <c r="TQ15" s="23"/>
+      <c r="TR15" s="23"/>
+      <c r="TS15" s="23"/>
+      <c r="TT15" s="23"/>
+      <c r="TU15" s="23"/>
+      <c r="TV15" s="23"/>
+      <c r="TW15" s="23"/>
+      <c r="TX15" s="23"/>
+      <c r="TY15" s="23"/>
+      <c r="TZ15" s="23"/>
+      <c r="UA15" s="23"/>
+      <c r="UB15" s="23"/>
+      <c r="UC15" s="23"/>
+      <c r="UD15" s="23"/>
+      <c r="UE15" s="23"/>
+      <c r="UF15" s="23"/>
+      <c r="UG15" s="23"/>
+      <c r="UH15" s="23"/>
+      <c r="UI15" s="23"/>
+      <c r="UJ15" s="23"/>
+      <c r="UK15" s="23"/>
+      <c r="UL15" s="23"/>
+      <c r="UM15" s="23"/>
+      <c r="UN15" s="23"/>
+      <c r="UO15" s="23"/>
+      <c r="UP15" s="23"/>
+      <c r="UQ15" s="23"/>
+      <c r="UR15" s="23"/>
+      <c r="US15" s="23"/>
+      <c r="UT15" s="23"/>
+      <c r="UU15" s="23"/>
+      <c r="UV15" s="23"/>
+      <c r="UW15" s="23"/>
+      <c r="UX15" s="23"/>
+      <c r="UY15" s="23"/>
+      <c r="UZ15" s="23"/>
+      <c r="VA15" s="23"/>
+      <c r="VB15" s="23"/>
+      <c r="VC15" s="23"/>
+      <c r="VD15" s="23"/>
+      <c r="VE15" s="23"/>
+      <c r="VF15" s="23"/>
+      <c r="VG15" s="23"/>
+      <c r="VH15" s="23"/>
+      <c r="VI15" s="23"/>
+      <c r="VJ15" s="23"/>
+      <c r="VK15" s="23"/>
+      <c r="VL15" s="23"/>
+      <c r="VM15" s="23"/>
+      <c r="VN15" s="23"/>
+      <c r="VO15" s="23"/>
+      <c r="VP15" s="23"/>
+      <c r="VQ15" s="23"/>
+      <c r="VR15" s="23"/>
+      <c r="VS15" s="23"/>
+      <c r="VT15" s="23"/>
+      <c r="VU15" s="23"/>
+      <c r="VV15" s="23"/>
+      <c r="VW15" s="23"/>
+      <c r="VX15" s="23"/>
+      <c r="VY15" s="23"/>
+      <c r="VZ15" s="23"/>
+      <c r="WA15" s="23"/>
+      <c r="WB15" s="23"/>
+      <c r="WC15" s="23"/>
+      <c r="WD15" s="23"/>
+      <c r="WE15" s="23"/>
+      <c r="WF15" s="23"/>
+      <c r="WG15" s="23"/>
+      <c r="WH15" s="23"/>
+      <c r="WI15" s="23"/>
+      <c r="WJ15" s="23"/>
+      <c r="WK15" s="23"/>
+      <c r="WL15" s="23"/>
+      <c r="WM15" s="23"/>
+      <c r="WN15" s="23"/>
+      <c r="WO15" s="23"/>
+      <c r="WP15" s="23"/>
+      <c r="WQ15" s="23"/>
+      <c r="WR15" s="23"/>
+      <c r="WS15" s="23"/>
+      <c r="WT15" s="23"/>
+      <c r="WU15" s="23"/>
+      <c r="WV15" s="23"/>
+      <c r="WW15" s="23"/>
+      <c r="WX15" s="23"/>
+      <c r="WY15" s="23"/>
+      <c r="WZ15" s="23"/>
+      <c r="XA15" s="23"/>
+      <c r="XB15" s="23"/>
+      <c r="XC15" s="23"/>
+      <c r="XD15" s="23"/>
+      <c r="XE15" s="23"/>
+      <c r="XF15" s="23"/>
+      <c r="XG15" s="23"/>
+      <c r="XH15" s="23"/>
+      <c r="XI15" s="23"/>
+      <c r="XJ15" s="23"/>
+      <c r="XK15" s="23"/>
+      <c r="XL15" s="23"/>
+      <c r="XM15" s="23"/>
+      <c r="XN15" s="23"/>
+      <c r="XO15" s="23"/>
+      <c r="XP15" s="23"/>
+      <c r="XQ15" s="23"/>
+      <c r="XR15" s="23"/>
+      <c r="XS15" s="23"/>
+      <c r="XT15" s="23"/>
+      <c r="XU15" s="23"/>
+      <c r="XV15" s="23"/>
+      <c r="XW15" s="23"/>
+      <c r="XX15" s="23"/>
+      <c r="XY15" s="23"/>
+      <c r="XZ15" s="23"/>
+      <c r="YA15" s="23"/>
+      <c r="YB15" s="23"/>
+      <c r="YC15" s="23"/>
+      <c r="YD15" s="23"/>
+      <c r="YE15" s="23"/>
+      <c r="YF15" s="23"/>
+      <c r="YG15" s="23"/>
+      <c r="YH15" s="23"/>
+      <c r="YI15" s="23"/>
+      <c r="YJ15" s="23"/>
+      <c r="YK15" s="23"/>
+      <c r="YL15" s="23"/>
+      <c r="YM15" s="23"/>
+      <c r="YN15" s="23"/>
+      <c r="YO15" s="23"/>
+      <c r="YP15" s="23"/>
+      <c r="YQ15" s="23"/>
+      <c r="YR15" s="23"/>
+      <c r="YS15" s="23"/>
+      <c r="YT15" s="23"/>
+      <c r="YU15" s="23"/>
+      <c r="YV15" s="23"/>
+      <c r="YW15" s="23"/>
+      <c r="YX15" s="23"/>
+      <c r="YY15" s="23"/>
+      <c r="YZ15" s="23"/>
+      <c r="ZA15" s="23"/>
+      <c r="ZB15" s="23"/>
+      <c r="ZC15" s="23"/>
+      <c r="ZD15" s="23"/>
+      <c r="ZE15" s="23"/>
+      <c r="ZF15" s="23"/>
+      <c r="ZG15" s="23"/>
+      <c r="ZH15" s="23"/>
+      <c r="ZI15" s="23"/>
+      <c r="ZJ15" s="23"/>
+      <c r="ZK15" s="23"/>
+      <c r="ZL15" s="23"/>
+      <c r="ZM15" s="23"/>
+      <c r="ZN15" s="23"/>
+      <c r="ZO15" s="23"/>
+      <c r="ZP15" s="23"/>
+      <c r="ZQ15" s="23"/>
+      <c r="ZR15" s="23"/>
+      <c r="ZS15" s="23"/>
+      <c r="ZT15" s="23"/>
+      <c r="ZU15" s="23"/>
+      <c r="ZV15" s="23"/>
+      <c r="ZW15" s="23"/>
+      <c r="ZX15" s="23"/>
+      <c r="ZY15" s="23"/>
+      <c r="ZZ15" s="23"/>
+      <c r="AAA15" s="23"/>
+      <c r="AAB15" s="23"/>
+      <c r="AAC15" s="23"/>
+      <c r="AAD15" s="23"/>
+      <c r="AAE15" s="23"/>
+      <c r="AAF15" s="23"/>
+      <c r="AAG15" s="23"/>
+      <c r="AAH15" s="23"/>
+      <c r="AAI15" s="23"/>
+      <c r="AAJ15" s="23"/>
+      <c r="AAK15" s="23"/>
+      <c r="AAL15" s="23"/>
+      <c r="AAM15" s="23"/>
+      <c r="AAN15" s="23"/>
+      <c r="AAO15" s="23"/>
+      <c r="AAP15" s="23"/>
+      <c r="AAQ15" s="23"/>
+      <c r="AAR15" s="23"/>
+      <c r="AAS15" s="23"/>
+      <c r="AAT15" s="23"/>
+      <c r="AAU15" s="23"/>
+      <c r="AAV15" s="23"/>
+      <c r="AAW15" s="23"/>
+      <c r="AAX15" s="23"/>
+      <c r="AAY15" s="23"/>
+      <c r="AAZ15" s="23"/>
+      <c r="ABA15" s="23"/>
+      <c r="ABB15" s="23"/>
+      <c r="ABC15" s="23"/>
+      <c r="ABD15" s="23"/>
+      <c r="ABE15" s="23"/>
+      <c r="ABF15" s="23"/>
+      <c r="ABG15" s="23"/>
+      <c r="ABH15" s="23"/>
+      <c r="ABI15" s="23"/>
+      <c r="ABJ15" s="23"/>
+      <c r="ABK15" s="23"/>
+      <c r="ABL15" s="23"/>
+      <c r="ABM15" s="23"/>
+      <c r="ABN15" s="23"/>
+      <c r="ABO15" s="23"/>
+      <c r="ABP15" s="23"/>
+      <c r="ABQ15" s="23"/>
+      <c r="ABR15" s="23"/>
+      <c r="ABS15" s="23"/>
+      <c r="ABT15" s="23"/>
+      <c r="ABU15" s="23"/>
+      <c r="ABV15" s="23"/>
+      <c r="ABW15" s="23"/>
+      <c r="ABX15" s="23"/>
+      <c r="ABY15" s="23"/>
+      <c r="ABZ15" s="23"/>
+      <c r="ACA15" s="23"/>
+      <c r="ACB15" s="23"/>
+      <c r="ACC15" s="23"/>
+      <c r="ACD15" s="23"/>
+      <c r="ACE15" s="23"/>
+      <c r="ACF15" s="23"/>
+      <c r="ACG15" s="23"/>
+      <c r="ACH15" s="23"/>
+      <c r="ACI15" s="23"/>
+      <c r="ACJ15" s="23"/>
+      <c r="ACK15" s="23"/>
+      <c r="ACL15" s="23"/>
+      <c r="ACM15" s="23"/>
+      <c r="ACN15" s="23"/>
+      <c r="ACO15" s="23"/>
+      <c r="ACP15" s="23"/>
+      <c r="ACQ15" s="23"/>
+      <c r="ACR15" s="23"/>
+      <c r="ACS15" s="23"/>
+      <c r="ACT15" s="23"/>
+      <c r="ACU15" s="23"/>
+      <c r="ACV15" s="23"/>
+      <c r="ACW15" s="23"/>
+      <c r="ACX15" s="23"/>
+      <c r="ACY15" s="23"/>
+      <c r="ACZ15" s="23"/>
+      <c r="ADA15" s="23"/>
+      <c r="ADB15" s="23"/>
+      <c r="ADC15" s="23"/>
+      <c r="ADD15" s="23"/>
+      <c r="ADE15" s="23"/>
+      <c r="ADF15" s="23"/>
+      <c r="ADG15" s="23"/>
+      <c r="ADH15" s="23"/>
+      <c r="ADI15" s="23"/>
+      <c r="ADJ15" s="23"/>
+      <c r="ADK15" s="23"/>
+      <c r="ADL15" s="23"/>
+      <c r="ADM15" s="23"/>
+      <c r="ADN15" s="23"/>
+      <c r="ADO15" s="23"/>
+      <c r="ADP15" s="23"/>
+      <c r="ADQ15" s="23"/>
+      <c r="ADR15" s="23"/>
+      <c r="ADS15" s="23"/>
+      <c r="ADT15" s="23"/>
+      <c r="ADU15" s="23"/>
+      <c r="ADV15" s="23"/>
+      <c r="ADW15" s="23"/>
+      <c r="ADX15" s="23"/>
+      <c r="ADY15" s="23"/>
+      <c r="ADZ15" s="23"/>
+      <c r="AEA15" s="23"/>
+      <c r="AEB15" s="23"/>
+      <c r="AEC15" s="23"/>
+      <c r="AED15" s="23"/>
+      <c r="AEE15" s="23"/>
+      <c r="AEF15" s="23"/>
+      <c r="AEG15" s="23"/>
+      <c r="AEH15" s="23"/>
+      <c r="AEI15" s="23"/>
+      <c r="AEJ15" s="23"/>
+      <c r="AEK15" s="23"/>
+      <c r="AEL15" s="23"/>
+      <c r="AEM15" s="23"/>
+      <c r="AEN15" s="23"/>
+      <c r="AEO15" s="23"/>
+      <c r="AEP15" s="23"/>
+      <c r="AEQ15" s="23"/>
+      <c r="AER15" s="23"/>
+      <c r="AES15" s="23"/>
+      <c r="AET15" s="23"/>
+      <c r="AEU15" s="23"/>
+      <c r="AEV15" s="23"/>
+      <c r="AEW15" s="23"/>
+      <c r="AEX15" s="23"/>
+      <c r="AEY15" s="23"/>
+      <c r="AEZ15" s="23"/>
+      <c r="AFA15" s="23"/>
+      <c r="AFB15" s="23"/>
+      <c r="AFC15" s="23"/>
+      <c r="AFD15" s="23"/>
+      <c r="AFE15" s="23"/>
+      <c r="AFF15" s="23"/>
+      <c r="AFG15" s="23"/>
+      <c r="AFH15" s="23"/>
+      <c r="AFI15" s="23"/>
+      <c r="AFJ15" s="23"/>
+      <c r="AFK15" s="23"/>
+      <c r="AFL15" s="23"/>
+      <c r="AFM15" s="23"/>
+      <c r="AFN15" s="23"/>
+      <c r="AFO15" s="23"/>
+      <c r="AFP15" s="23"/>
+      <c r="AFQ15" s="23"/>
+      <c r="AFR15" s="23"/>
+      <c r="AFS15" s="23"/>
+      <c r="AFT15" s="23"/>
+      <c r="AFU15" s="23"/>
+      <c r="AFV15" s="23"/>
+      <c r="AFW15" s="23"/>
+      <c r="AFX15" s="23"/>
+      <c r="AFY15" s="23"/>
+      <c r="AFZ15" s="23"/>
+    </row>
+    <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="12"/>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="4">
+        <v>240</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1E-4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>16</v>
+      </c>
+      <c r="J19" s="12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L19" s="12">
+        <v>200</v>
+      </c>
+      <c r="M19" s="12">
+        <v>416</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3">
+        <v>24</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.87990000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="4">
+        <v>240</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="4">
+        <v>16</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3">
+        <v>38</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.88602999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="4">
+        <v>240</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="4">
+        <v>32</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
+        <v>168</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.88941999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="4">
+        <v>240</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="4">
+        <v>32</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3">
+        <v>29</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.88482000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="21">
+        <v>5</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="21">
+        <v>240</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="21">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="J23" s="12"/>
+      <c r="K23" s="21">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
+      <c r="R23" s="7">
+        <v>0.88971</v>
+      </c>
+      <c r="S23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="23"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="23"/>
+      <c r="AU23" s="23"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="23"/>
+      <c r="BA23" s="23"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="23"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="23"/>
+      <c r="BH23" s="23"/>
+      <c r="BI23" s="23"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="23"/>
+      <c r="BL23" s="23"/>
+      <c r="BM23" s="23"/>
+      <c r="BN23" s="23"/>
+      <c r="BO23" s="23"/>
+      <c r="BP23" s="23"/>
+      <c r="BQ23" s="23"/>
+      <c r="BR23" s="23"/>
+      <c r="BS23" s="23"/>
+      <c r="BT23" s="23"/>
+      <c r="BU23" s="23"/>
+      <c r="BV23" s="23"/>
+    </row>
+    <row r="24" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4">
+        <v>240</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="4">
+        <v>64</v>
+      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3">
+        <v>178</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.88748000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>7</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="4">
+        <v>256</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="4">
+        <v>16</v>
+      </c>
+      <c r="J25" s="12"/>
+      <c r="K25" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3">
+        <v>24</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.87990000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="4">
+        <v>256</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="4">
+        <v>16</v>
+      </c>
+      <c r="J26" s="12"/>
+      <c r="K26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3">
+        <v>38</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.88602999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="4">
+        <v>256</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="4">
+        <v>32</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="4">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3">
+        <v>29</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.87646000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:74" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="25"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:M17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="H19:H27"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="L19:L27"/>
+    <mergeCell ref="M19:M27"/>
+    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="G6:G15"/>
+    <mergeCell ref="L6:L15"/>
+    <mergeCell ref="M6:M15"/>
+    <mergeCell ref="H6:H15"/>
+    <mergeCell ref="J6:J15"/>
+    <mergeCell ref="E6:E15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rangkupam.xlsx
+++ b/rangkupam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENT\CODING LAIN\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C7B8C-3156-43B3-A72D-081721CA6B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC1358-4111-4295-83D9-B2C532377B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{082D9397-1B1B-4B71-8954-A9D7E17799A7}"/>
   </bookViews>
   <sheets>
     <sheet name="model awal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>Model 1</t>
   </si>
@@ -213,13 +213,28 @@
   </si>
   <si>
     <t>Semakin besar nilai momentum, semakin cepat proses optimasi</t>
+  </si>
+  <si>
+    <t>Referensi: Menggunakan augmentasi dan juga ukuran yang bervariasi, jadi augmentasi dipertahankan dan ukuran yang divariasikan</t>
+  </si>
+  <si>
+    <t>Karena itu, diambil ukuran 416 yang menjadi patokan dasar dari dataset</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Best Params: yolov8m.pt, 240, Adam, 0.0001, 64, 0.0005, 0.937, 200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +254,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +274,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -314,11 +341,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,8 +406,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,29 +448,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -721,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D7A5C3-4302-4427-86D5-33E45D3D5E2A}">
-  <dimension ref="E2:M7"/>
+  <dimension ref="E2:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="F2" zoomScale="190" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="D1" zoomScale="152" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,127 +813,157 @@
     <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="18" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="K2" s="1" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>200</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>0.81599999999999995</v>
       </c>
-      <c r="K4" s="1">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5">
         <v>0.82099999999999995</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="14">
         <v>175</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="14">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="14">
         <v>125</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="14">
         <v>0.83</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J5" s="15"/>
+      <c r="K5" s="14">
         <v>0.83899999999999997</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>116</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>0.81200000000000006</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>66</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>0.84</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <v>0.83899999999999997</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>195</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>0.83299999999999996</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>145</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>0.83799999999999997</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <v>0.84599999999999997</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="5:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -864,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16F24B3-4B99-49F3-AA16-7769F65F4673}">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -890,28 +1000,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="M3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -971,7 +1081,7 @@
       <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="23">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -980,7 +1090,7 @@
       <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="22">
         <v>200</v>
       </c>
       <c r="K5" s="3">
@@ -1006,27 +1116,27 @@
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="23" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13">
+      <c r="J6" s="22"/>
+      <c r="K6" s="23">
         <v>416</v>
       </c>
       <c r="M6" s="3">
@@ -1049,17 +1159,17 @@
       <c r="B7" s="5">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="13">
+      <c r="C7" s="25"/>
+      <c r="D7" s="23">
         <v>256</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="14"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="24"/>
       <c r="M7" s="3">
         <v>172</v>
       </c>
@@ -1083,14 +1193,14 @@
       <c r="C8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="14"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="24"/>
       <c r="M8" s="3">
         <v>116</v>
       </c>
@@ -1114,14 +1224,14 @@
       <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="14"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
       <c r="M9" s="7">
         <v>143</v>
       </c>
@@ -1145,14 +1255,14 @@
       <c r="C10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="14"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="24"/>
       <c r="M10" s="3">
         <v>195</v>
       </c>
@@ -1173,19 +1283,19 @@
       <c r="B11" s="5">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="14"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="24"/>
       <c r="M11" s="3">
         <v>67</v>
       </c>
@@ -1206,17 +1316,17 @@
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="3">
         <v>48</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="14"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="24"/>
       <c r="M12" s="3">
         <v>115</v>
       </c>
@@ -1237,19 +1347,19 @@
       <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13">
+      <c r="F13" s="24"/>
+      <c r="G13" s="23">
         <v>16</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24"/>
       <c r="M13" s="3">
         <v>159</v>
       </c>
@@ -1270,19 +1380,19 @@
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="15"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="25"/>
       <c r="M14" s="3">
         <v>172</v>
       </c>
@@ -1300,18 +1410,18 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="18" spans="8:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1339,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB8005-5696-4015-A771-D6400CC063DD}">
-  <dimension ref="A4:AFZ28"/>
+  <dimension ref="A4:BV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="120" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,30 +1466,28 @@
     <col min="18" max="18" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+    <row r="4" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="22"/>
+      <c r="E4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="12" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="12"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="22"/>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1404,1231 +1512,378 @@
       <c r="L5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="19" t="s">
+      <c r="M5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="N5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="O5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="P5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>29</v>
+      <c r="E6" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="4">
         <v>240</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="22">
         <v>1E-4</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K6" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="22">
         <v>200</v>
       </c>
-      <c r="M6" s="13">
-        <v>416</v>
-      </c>
-      <c r="N6" s="1"/>
+      <c r="M6" s="3">
+        <v>83</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.85997999999999997</v>
+      </c>
       <c r="O6" s="3">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="P6" s="3">
-        <v>0.85997999999999997</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>16</v>
-      </c>
-      <c r="R6" s="3">
         <v>0.88061</v>
       </c>
     </row>
-    <row r="7" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="F7" s="4">
         <v>240</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="4">
         <v>16</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="1"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="3">
+        <v>199</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.87475000000000003</v>
+      </c>
       <c r="O7" s="3">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="P7" s="3">
-        <v>0.87475000000000003</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>150</v>
-      </c>
-      <c r="R7" s="3">
         <v>0.87702999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" s="4">
         <v>240</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="4">
         <v>32</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="1"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="3">
+        <v>103</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.87453000000000003</v>
+      </c>
       <c r="O8" s="3">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="P8" s="3">
-        <v>0.87453000000000003</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>85</v>
-      </c>
-      <c r="R8" s="3">
         <v>0.88134999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="4">
+    <row r="9" spans="4:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="31">
         <v>4</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4">
+      <c r="E9" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="31">
         <v>240</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="4">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="31">
         <v>32</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="3">
+      <c r="L9" s="22"/>
+      <c r="M9" s="33">
         <v>150</v>
       </c>
-      <c r="P9" s="3">
+      <c r="N9" s="33">
         <v>0.86726000000000003</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="O9" s="33">
         <v>78</v>
       </c>
-      <c r="R9" s="3">
+      <c r="P9" s="33">
         <v>0.88275000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="20">
+    <row r="10" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="4">
         <v>240</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="4">
         <v>64</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="17">
+      <c r="L10" s="22"/>
+      <c r="M10" s="3">
         <v>199</v>
       </c>
-      <c r="P10" s="17">
+      <c r="N10" s="3">
         <v>0.87370000000000003</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="O10" s="3">
         <v>147</v>
       </c>
-      <c r="R10" s="17">
+      <c r="P10" s="3">
         <v>0.87795000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" s="4">
         <v>6</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="4">
         <v>240</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="4">
         <v>64</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="1"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="3">
+        <v>114</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.85890999999999995</v>
+      </c>
       <c r="O11" s="3">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="P11" s="3">
-        <v>0.85890999999999995</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>59</v>
-      </c>
-      <c r="R11" s="3">
         <v>0.87651000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D12" s="4">
         <v>7</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="F12" s="4">
         <v>256</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="4">
         <v>16</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="1"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="3">
+        <v>83</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.85997999999999997</v>
+      </c>
       <c r="O12" s="3">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="P12" s="3">
-        <v>0.85997999999999997</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>16</v>
-      </c>
-      <c r="R12" s="3">
         <v>0.88161</v>
       </c>
     </row>
-    <row r="13" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" s="4">
         <v>256</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="4">
         <v>16</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="1"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="3">
+        <v>199</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.87475000000000003</v>
+      </c>
       <c r="O13" s="3">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="P13" s="3">
-        <v>0.87475000000000003</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>150</v>
-      </c>
-      <c r="R13" s="3">
         <v>0.87702999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:858" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14" s="4">
         <v>9</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="4">
         <v>256</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="4">
         <v>32</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="1"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="3">
+        <v>103</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.87453000000000003</v>
+      </c>
       <c r="O14" s="3">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="P14" s="3">
-        <v>0.87453000000000003</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>85</v>
-      </c>
-      <c r="R14" s="3">
         <v>0.88134999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:858" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="21">
+    <row r="15" spans="4:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="31">
         <v>10</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="21">
+      <c r="E15" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="31">
         <v>256</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="21">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="31">
         <v>32</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="21" t="s">
+      <c r="J15" s="22"/>
+      <c r="K15" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="7">
+      <c r="L15" s="22"/>
+      <c r="M15" s="33">
         <v>130</v>
       </c>
-      <c r="P15" s="7">
+      <c r="N15" s="33">
         <v>0.86785999999999996</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="O15" s="33">
         <v>78</v>
       </c>
-      <c r="R15" s="7">
+      <c r="P15" s="33">
         <v>0.88275000000000003</v>
       </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="23"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="23"/>
-      <c r="BD15" s="23"/>
-      <c r="BE15" s="23"/>
-      <c r="BF15" s="23"/>
-      <c r="BG15" s="23"/>
-      <c r="BH15" s="23"/>
-      <c r="BI15" s="23"/>
-      <c r="BJ15" s="23"/>
-      <c r="BK15" s="23"/>
-      <c r="BL15" s="23"/>
-      <c r="BM15" s="23"/>
-      <c r="BN15" s="23"/>
-      <c r="BO15" s="23"/>
-      <c r="BP15" s="23"/>
-      <c r="BQ15" s="23"/>
-      <c r="BR15" s="23"/>
-      <c r="BS15" s="23"/>
-      <c r="BT15" s="23"/>
-      <c r="BU15" s="23"/>
-      <c r="BV15" s="23"/>
-      <c r="BW15" s="23"/>
-      <c r="BX15" s="23"/>
-      <c r="BY15" s="23"/>
-      <c r="BZ15" s="23"/>
-      <c r="CA15" s="23"/>
-      <c r="CB15" s="23"/>
-      <c r="CC15" s="23"/>
-      <c r="CD15" s="23"/>
-      <c r="CE15" s="23"/>
-      <c r="CF15" s="23"/>
-      <c r="CG15" s="23"/>
-      <c r="CH15" s="23"/>
-      <c r="CI15" s="23"/>
-      <c r="CJ15" s="23"/>
-      <c r="CK15" s="23"/>
-      <c r="CL15" s="23"/>
-      <c r="CM15" s="23"/>
-      <c r="CN15" s="23"/>
-      <c r="CO15" s="23"/>
-      <c r="CP15" s="23"/>
-      <c r="CQ15" s="23"/>
-      <c r="CR15" s="23"/>
-      <c r="CS15" s="23"/>
-      <c r="CT15" s="23"/>
-      <c r="CU15" s="23"/>
-      <c r="CV15" s="23"/>
-      <c r="CW15" s="23"/>
-      <c r="CX15" s="23"/>
-      <c r="CY15" s="23"/>
-      <c r="CZ15" s="23"/>
-      <c r="DA15" s="23"/>
-      <c r="DB15" s="23"/>
-      <c r="DC15" s="23"/>
-      <c r="DD15" s="23"/>
-      <c r="DE15" s="23"/>
-      <c r="DF15" s="23"/>
-      <c r="DG15" s="23"/>
-      <c r="DH15" s="23"/>
-      <c r="DI15" s="23"/>
-      <c r="DJ15" s="23"/>
-      <c r="DK15" s="23"/>
-      <c r="DL15" s="23"/>
-      <c r="DM15" s="23"/>
-      <c r="DN15" s="23"/>
-      <c r="DO15" s="23"/>
-      <c r="DP15" s="23"/>
-      <c r="DQ15" s="23"/>
-      <c r="DR15" s="23"/>
-      <c r="DS15" s="23"/>
-      <c r="DT15" s="23"/>
-      <c r="DU15" s="23"/>
-      <c r="DV15" s="23"/>
-      <c r="DW15" s="23"/>
-      <c r="DX15" s="23"/>
-      <c r="DY15" s="23"/>
-      <c r="DZ15" s="23"/>
-      <c r="EA15" s="23"/>
-      <c r="EB15" s="23"/>
-      <c r="EC15" s="23"/>
-      <c r="ED15" s="23"/>
-      <c r="EE15" s="23"/>
-      <c r="EF15" s="23"/>
-      <c r="EG15" s="23"/>
-      <c r="EH15" s="23"/>
-      <c r="EI15" s="23"/>
-      <c r="EJ15" s="23"/>
-      <c r="EK15" s="23"/>
-      <c r="EL15" s="23"/>
-      <c r="EM15" s="23"/>
-      <c r="EN15" s="23"/>
-      <c r="EO15" s="23"/>
-      <c r="EP15" s="23"/>
-      <c r="EQ15" s="23"/>
-      <c r="ER15" s="23"/>
-      <c r="ES15" s="23"/>
-      <c r="ET15" s="23"/>
-      <c r="EU15" s="23"/>
-      <c r="EV15" s="23"/>
-      <c r="EW15" s="23"/>
-      <c r="EX15" s="23"/>
-      <c r="EY15" s="23"/>
-      <c r="EZ15" s="23"/>
-      <c r="FA15" s="23"/>
-      <c r="FB15" s="23"/>
-      <c r="FC15" s="23"/>
-      <c r="FD15" s="23"/>
-      <c r="FE15" s="23"/>
-      <c r="FF15" s="23"/>
-      <c r="FG15" s="23"/>
-      <c r="FH15" s="23"/>
-      <c r="FI15" s="23"/>
-      <c r="FJ15" s="23"/>
-      <c r="FK15" s="23"/>
-      <c r="FL15" s="23"/>
-      <c r="FM15" s="23"/>
-      <c r="FN15" s="23"/>
-      <c r="FO15" s="23"/>
-      <c r="FP15" s="23"/>
-      <c r="FQ15" s="23"/>
-      <c r="FR15" s="23"/>
-      <c r="FS15" s="23"/>
-      <c r="FT15" s="23"/>
-      <c r="FU15" s="23"/>
-      <c r="FV15" s="23"/>
-      <c r="FW15" s="23"/>
-      <c r="FX15" s="23"/>
-      <c r="FY15" s="23"/>
-      <c r="FZ15" s="23"/>
-      <c r="GA15" s="23"/>
-      <c r="GB15" s="23"/>
-      <c r="GC15" s="23"/>
-      <c r="GD15" s="23"/>
-      <c r="GE15" s="23"/>
-      <c r="GF15" s="23"/>
-      <c r="GG15" s="23"/>
-      <c r="GH15" s="23"/>
-      <c r="GI15" s="23"/>
-      <c r="GJ15" s="23"/>
-      <c r="GK15" s="23"/>
-      <c r="GL15" s="23"/>
-      <c r="GM15" s="23"/>
-      <c r="GN15" s="23"/>
-      <c r="GO15" s="23"/>
-      <c r="GP15" s="23"/>
-      <c r="GQ15" s="23"/>
-      <c r="GR15" s="23"/>
-      <c r="GS15" s="23"/>
-      <c r="GT15" s="23"/>
-      <c r="GU15" s="23"/>
-      <c r="GV15" s="23"/>
-      <c r="GW15" s="23"/>
-      <c r="GX15" s="23"/>
-      <c r="GY15" s="23"/>
-      <c r="GZ15" s="23"/>
-      <c r="HA15" s="23"/>
-      <c r="HB15" s="23"/>
-      <c r="HC15" s="23"/>
-      <c r="HD15" s="23"/>
-      <c r="HE15" s="23"/>
-      <c r="HF15" s="23"/>
-      <c r="HG15" s="23"/>
-      <c r="HH15" s="23"/>
-      <c r="HI15" s="23"/>
-      <c r="HJ15" s="23"/>
-      <c r="HK15" s="23"/>
-      <c r="HL15" s="23"/>
-      <c r="HM15" s="23"/>
-      <c r="HN15" s="23"/>
-      <c r="HO15" s="23"/>
-      <c r="HP15" s="23"/>
-      <c r="HQ15" s="23"/>
-      <c r="HR15" s="23"/>
-      <c r="HS15" s="23"/>
-      <c r="HT15" s="23"/>
-      <c r="HU15" s="23"/>
-      <c r="HV15" s="23"/>
-      <c r="HW15" s="23"/>
-      <c r="HX15" s="23"/>
-      <c r="HY15" s="23"/>
-      <c r="HZ15" s="23"/>
-      <c r="IA15" s="23"/>
-      <c r="IB15" s="23"/>
-      <c r="IC15" s="23"/>
-      <c r="ID15" s="23"/>
-      <c r="IE15" s="23"/>
-      <c r="IF15" s="23"/>
-      <c r="IG15" s="23"/>
-      <c r="IH15" s="23"/>
-      <c r="II15" s="23"/>
-      <c r="IJ15" s="23"/>
-      <c r="IK15" s="23"/>
-      <c r="IL15" s="23"/>
-      <c r="IM15" s="23"/>
-      <c r="IN15" s="23"/>
-      <c r="IO15" s="23"/>
-      <c r="IP15" s="23"/>
-      <c r="IQ15" s="23"/>
-      <c r="IR15" s="23"/>
-      <c r="IS15" s="23"/>
-      <c r="IT15" s="23"/>
-      <c r="IU15" s="23"/>
-      <c r="IV15" s="23"/>
-      <c r="IW15" s="23"/>
-      <c r="IX15" s="23"/>
-      <c r="IY15" s="23"/>
-      <c r="IZ15" s="23"/>
-      <c r="JA15" s="23"/>
-      <c r="JB15" s="23"/>
-      <c r="JC15" s="23"/>
-      <c r="JD15" s="23"/>
-      <c r="JE15" s="23"/>
-      <c r="JF15" s="23"/>
-      <c r="JG15" s="23"/>
-      <c r="JH15" s="23"/>
-      <c r="JI15" s="23"/>
-      <c r="JJ15" s="23"/>
-      <c r="JK15" s="23"/>
-      <c r="JL15" s="23"/>
-      <c r="JM15" s="23"/>
-      <c r="JN15" s="23"/>
-      <c r="JO15" s="23"/>
-      <c r="JP15" s="23"/>
-      <c r="JQ15" s="23"/>
-      <c r="JR15" s="23"/>
-      <c r="JS15" s="23"/>
-      <c r="JT15" s="23"/>
-      <c r="JU15" s="23"/>
-      <c r="JV15" s="23"/>
-      <c r="JW15" s="23"/>
-      <c r="JX15" s="23"/>
-      <c r="JY15" s="23"/>
-      <c r="JZ15" s="23"/>
-      <c r="KA15" s="23"/>
-      <c r="KB15" s="23"/>
-      <c r="KC15" s="23"/>
-      <c r="KD15" s="23"/>
-      <c r="KE15" s="23"/>
-      <c r="KF15" s="23"/>
-      <c r="KG15" s="23"/>
-      <c r="KH15" s="23"/>
-      <c r="KI15" s="23"/>
-      <c r="KJ15" s="23"/>
-      <c r="KK15" s="23"/>
-      <c r="KL15" s="23"/>
-      <c r="KM15" s="23"/>
-      <c r="KN15" s="23"/>
-      <c r="KO15" s="23"/>
-      <c r="KP15" s="23"/>
-      <c r="KQ15" s="23"/>
-      <c r="KR15" s="23"/>
-      <c r="KS15" s="23"/>
-      <c r="KT15" s="23"/>
-      <c r="KU15" s="23"/>
-      <c r="KV15" s="23"/>
-      <c r="KW15" s="23"/>
-      <c r="KX15" s="23"/>
-      <c r="KY15" s="23"/>
-      <c r="KZ15" s="23"/>
-      <c r="LA15" s="23"/>
-      <c r="LB15" s="23"/>
-      <c r="LC15" s="23"/>
-      <c r="LD15" s="23"/>
-      <c r="LE15" s="23"/>
-      <c r="LF15" s="23"/>
-      <c r="LG15" s="23"/>
-      <c r="LH15" s="23"/>
-      <c r="LI15" s="23"/>
-      <c r="LJ15" s="23"/>
-      <c r="LK15" s="23"/>
-      <c r="LL15" s="23"/>
-      <c r="LM15" s="23"/>
-      <c r="LN15" s="23"/>
-      <c r="LO15" s="23"/>
-      <c r="LP15" s="23"/>
-      <c r="LQ15" s="23"/>
-      <c r="LR15" s="23"/>
-      <c r="LS15" s="23"/>
-      <c r="LT15" s="23"/>
-      <c r="LU15" s="23"/>
-      <c r="LV15" s="23"/>
-      <c r="LW15" s="23"/>
-      <c r="LX15" s="23"/>
-      <c r="LY15" s="23"/>
-      <c r="LZ15" s="23"/>
-      <c r="MA15" s="23"/>
-      <c r="MB15" s="23"/>
-      <c r="MC15" s="23"/>
-      <c r="MD15" s="23"/>
-      <c r="ME15" s="23"/>
-      <c r="MF15" s="23"/>
-      <c r="MG15" s="23"/>
-      <c r="MH15" s="23"/>
-      <c r="MI15" s="23"/>
-      <c r="MJ15" s="23"/>
-      <c r="MK15" s="23"/>
-      <c r="ML15" s="23"/>
-      <c r="MM15" s="23"/>
-      <c r="MN15" s="23"/>
-      <c r="MO15" s="23"/>
-      <c r="MP15" s="23"/>
-      <c r="MQ15" s="23"/>
-      <c r="MR15" s="23"/>
-      <c r="MS15" s="23"/>
-      <c r="MT15" s="23"/>
-      <c r="MU15" s="23"/>
-      <c r="MV15" s="23"/>
-      <c r="MW15" s="23"/>
-      <c r="MX15" s="23"/>
-      <c r="MY15" s="23"/>
-      <c r="MZ15" s="23"/>
-      <c r="NA15" s="23"/>
-      <c r="NB15" s="23"/>
-      <c r="NC15" s="23"/>
-      <c r="ND15" s="23"/>
-      <c r="NE15" s="23"/>
-      <c r="NF15" s="23"/>
-      <c r="NG15" s="23"/>
-      <c r="NH15" s="23"/>
-      <c r="NI15" s="23"/>
-      <c r="NJ15" s="23"/>
-      <c r="NK15" s="23"/>
-      <c r="NL15" s="23"/>
-      <c r="NM15" s="23"/>
-      <c r="NN15" s="23"/>
-      <c r="NO15" s="23"/>
-      <c r="NP15" s="23"/>
-      <c r="NQ15" s="23"/>
-      <c r="NR15" s="23"/>
-      <c r="NS15" s="23"/>
-      <c r="NT15" s="23"/>
-      <c r="NU15" s="23"/>
-      <c r="NV15" s="23"/>
-      <c r="NW15" s="23"/>
-      <c r="NX15" s="23"/>
-      <c r="NY15" s="23"/>
-      <c r="NZ15" s="23"/>
-      <c r="OA15" s="23"/>
-      <c r="OB15" s="23"/>
-      <c r="OC15" s="23"/>
-      <c r="OD15" s="23"/>
-      <c r="OE15" s="23"/>
-      <c r="OF15" s="23"/>
-      <c r="OG15" s="23"/>
-      <c r="OH15" s="23"/>
-      <c r="OI15" s="23"/>
-      <c r="OJ15" s="23"/>
-      <c r="OK15" s="23"/>
-      <c r="OL15" s="23"/>
-      <c r="OM15" s="23"/>
-      <c r="ON15" s="23"/>
-      <c r="OO15" s="23"/>
-      <c r="OP15" s="23"/>
-      <c r="OQ15" s="23"/>
-      <c r="OR15" s="23"/>
-      <c r="OS15" s="23"/>
-      <c r="OT15" s="23"/>
-      <c r="OU15" s="23"/>
-      <c r="OV15" s="23"/>
-      <c r="OW15" s="23"/>
-      <c r="OX15" s="23"/>
-      <c r="OY15" s="23"/>
-      <c r="OZ15" s="23"/>
-      <c r="PA15" s="23"/>
-      <c r="PB15" s="23"/>
-      <c r="PC15" s="23"/>
-      <c r="PD15" s="23"/>
-      <c r="PE15" s="23"/>
-      <c r="PF15" s="23"/>
-      <c r="PG15" s="23"/>
-      <c r="PH15" s="23"/>
-      <c r="PI15" s="23"/>
-      <c r="PJ15" s="23"/>
-      <c r="PK15" s="23"/>
-      <c r="PL15" s="23"/>
-      <c r="PM15" s="23"/>
-      <c r="PN15" s="23"/>
-      <c r="PO15" s="23"/>
-      <c r="PP15" s="23"/>
-      <c r="PQ15" s="23"/>
-      <c r="PR15" s="23"/>
-      <c r="PS15" s="23"/>
-      <c r="PT15" s="23"/>
-      <c r="PU15" s="23"/>
-      <c r="PV15" s="23"/>
-      <c r="PW15" s="23"/>
-      <c r="PX15" s="23"/>
-      <c r="PY15" s="23"/>
-      <c r="PZ15" s="23"/>
-      <c r="QA15" s="23"/>
-      <c r="QB15" s="23"/>
-      <c r="QC15" s="23"/>
-      <c r="QD15" s="23"/>
-      <c r="QE15" s="23"/>
-      <c r="QF15" s="23"/>
-      <c r="QG15" s="23"/>
-      <c r="QH15" s="23"/>
-      <c r="QI15" s="23"/>
-      <c r="QJ15" s="23"/>
-      <c r="QK15" s="23"/>
-      <c r="QL15" s="23"/>
-      <c r="QM15" s="23"/>
-      <c r="QN15" s="23"/>
-      <c r="QO15" s="23"/>
-      <c r="QP15" s="23"/>
-      <c r="QQ15" s="23"/>
-      <c r="QR15" s="23"/>
-      <c r="QS15" s="23"/>
-      <c r="QT15" s="23"/>
-      <c r="QU15" s="23"/>
-      <c r="QV15" s="23"/>
-      <c r="QW15" s="23"/>
-      <c r="QX15" s="23"/>
-      <c r="QY15" s="23"/>
-      <c r="QZ15" s="23"/>
-      <c r="RA15" s="23"/>
-      <c r="RB15" s="23"/>
-      <c r="RC15" s="23"/>
-      <c r="RD15" s="23"/>
-      <c r="RE15" s="23"/>
-      <c r="RF15" s="23"/>
-      <c r="RG15" s="23"/>
-      <c r="RH15" s="23"/>
-      <c r="RI15" s="23"/>
-      <c r="RJ15" s="23"/>
-      <c r="RK15" s="23"/>
-      <c r="RL15" s="23"/>
-      <c r="RM15" s="23"/>
-      <c r="RN15" s="23"/>
-      <c r="RO15" s="23"/>
-      <c r="RP15" s="23"/>
-      <c r="RQ15" s="23"/>
-      <c r="RR15" s="23"/>
-      <c r="RS15" s="23"/>
-      <c r="RT15" s="23"/>
-      <c r="RU15" s="23"/>
-      <c r="RV15" s="23"/>
-      <c r="RW15" s="23"/>
-      <c r="RX15" s="23"/>
-      <c r="RY15" s="23"/>
-      <c r="RZ15" s="23"/>
-      <c r="SA15" s="23"/>
-      <c r="SB15" s="23"/>
-      <c r="SC15" s="23"/>
-      <c r="SD15" s="23"/>
-      <c r="SE15" s="23"/>
-      <c r="SF15" s="23"/>
-      <c r="SG15" s="23"/>
-      <c r="SH15" s="23"/>
-      <c r="SI15" s="23"/>
-      <c r="SJ15" s="23"/>
-      <c r="SK15" s="23"/>
-      <c r="SL15" s="23"/>
-      <c r="SM15" s="23"/>
-      <c r="SN15" s="23"/>
-      <c r="SO15" s="23"/>
-      <c r="SP15" s="23"/>
-      <c r="SQ15" s="23"/>
-      <c r="SR15" s="23"/>
-      <c r="SS15" s="23"/>
-      <c r="ST15" s="23"/>
-      <c r="SU15" s="23"/>
-      <c r="SV15" s="23"/>
-      <c r="SW15" s="23"/>
-      <c r="SX15" s="23"/>
-      <c r="SY15" s="23"/>
-      <c r="SZ15" s="23"/>
-      <c r="TA15" s="23"/>
-      <c r="TB15" s="23"/>
-      <c r="TC15" s="23"/>
-      <c r="TD15" s="23"/>
-      <c r="TE15" s="23"/>
-      <c r="TF15" s="23"/>
-      <c r="TG15" s="23"/>
-      <c r="TH15" s="23"/>
-      <c r="TI15" s="23"/>
-      <c r="TJ15" s="23"/>
-      <c r="TK15" s="23"/>
-      <c r="TL15" s="23"/>
-      <c r="TM15" s="23"/>
-      <c r="TN15" s="23"/>
-      <c r="TO15" s="23"/>
-      <c r="TP15" s="23"/>
-      <c r="TQ15" s="23"/>
-      <c r="TR15" s="23"/>
-      <c r="TS15" s="23"/>
-      <c r="TT15" s="23"/>
-      <c r="TU15" s="23"/>
-      <c r="TV15" s="23"/>
-      <c r="TW15" s="23"/>
-      <c r="TX15" s="23"/>
-      <c r="TY15" s="23"/>
-      <c r="TZ15" s="23"/>
-      <c r="UA15" s="23"/>
-      <c r="UB15" s="23"/>
-      <c r="UC15" s="23"/>
-      <c r="UD15" s="23"/>
-      <c r="UE15" s="23"/>
-      <c r="UF15" s="23"/>
-      <c r="UG15" s="23"/>
-      <c r="UH15" s="23"/>
-      <c r="UI15" s="23"/>
-      <c r="UJ15" s="23"/>
-      <c r="UK15" s="23"/>
-      <c r="UL15" s="23"/>
-      <c r="UM15" s="23"/>
-      <c r="UN15" s="23"/>
-      <c r="UO15" s="23"/>
-      <c r="UP15" s="23"/>
-      <c r="UQ15" s="23"/>
-      <c r="UR15" s="23"/>
-      <c r="US15" s="23"/>
-      <c r="UT15" s="23"/>
-      <c r="UU15" s="23"/>
-      <c r="UV15" s="23"/>
-      <c r="UW15" s="23"/>
-      <c r="UX15" s="23"/>
-      <c r="UY15" s="23"/>
-      <c r="UZ15" s="23"/>
-      <c r="VA15" s="23"/>
-      <c r="VB15" s="23"/>
-      <c r="VC15" s="23"/>
-      <c r="VD15" s="23"/>
-      <c r="VE15" s="23"/>
-      <c r="VF15" s="23"/>
-      <c r="VG15" s="23"/>
-      <c r="VH15" s="23"/>
-      <c r="VI15" s="23"/>
-      <c r="VJ15" s="23"/>
-      <c r="VK15" s="23"/>
-      <c r="VL15" s="23"/>
-      <c r="VM15" s="23"/>
-      <c r="VN15" s="23"/>
-      <c r="VO15" s="23"/>
-      <c r="VP15" s="23"/>
-      <c r="VQ15" s="23"/>
-      <c r="VR15" s="23"/>
-      <c r="VS15" s="23"/>
-      <c r="VT15" s="23"/>
-      <c r="VU15" s="23"/>
-      <c r="VV15" s="23"/>
-      <c r="VW15" s="23"/>
-      <c r="VX15" s="23"/>
-      <c r="VY15" s="23"/>
-      <c r="VZ15" s="23"/>
-      <c r="WA15" s="23"/>
-      <c r="WB15" s="23"/>
-      <c r="WC15" s="23"/>
-      <c r="WD15" s="23"/>
-      <c r="WE15" s="23"/>
-      <c r="WF15" s="23"/>
-      <c r="WG15" s="23"/>
-      <c r="WH15" s="23"/>
-      <c r="WI15" s="23"/>
-      <c r="WJ15" s="23"/>
-      <c r="WK15" s="23"/>
-      <c r="WL15" s="23"/>
-      <c r="WM15" s="23"/>
-      <c r="WN15" s="23"/>
-      <c r="WO15" s="23"/>
-      <c r="WP15" s="23"/>
-      <c r="WQ15" s="23"/>
-      <c r="WR15" s="23"/>
-      <c r="WS15" s="23"/>
-      <c r="WT15" s="23"/>
-      <c r="WU15" s="23"/>
-      <c r="WV15" s="23"/>
-      <c r="WW15" s="23"/>
-      <c r="WX15" s="23"/>
-      <c r="WY15" s="23"/>
-      <c r="WZ15" s="23"/>
-      <c r="XA15" s="23"/>
-      <c r="XB15" s="23"/>
-      <c r="XC15" s="23"/>
-      <c r="XD15" s="23"/>
-      <c r="XE15" s="23"/>
-      <c r="XF15" s="23"/>
-      <c r="XG15" s="23"/>
-      <c r="XH15" s="23"/>
-      <c r="XI15" s="23"/>
-      <c r="XJ15" s="23"/>
-      <c r="XK15" s="23"/>
-      <c r="XL15" s="23"/>
-      <c r="XM15" s="23"/>
-      <c r="XN15" s="23"/>
-      <c r="XO15" s="23"/>
-      <c r="XP15" s="23"/>
-      <c r="XQ15" s="23"/>
-      <c r="XR15" s="23"/>
-      <c r="XS15" s="23"/>
-      <c r="XT15" s="23"/>
-      <c r="XU15" s="23"/>
-      <c r="XV15" s="23"/>
-      <c r="XW15" s="23"/>
-      <c r="XX15" s="23"/>
-      <c r="XY15" s="23"/>
-      <c r="XZ15" s="23"/>
-      <c r="YA15" s="23"/>
-      <c r="YB15" s="23"/>
-      <c r="YC15" s="23"/>
-      <c r="YD15" s="23"/>
-      <c r="YE15" s="23"/>
-      <c r="YF15" s="23"/>
-      <c r="YG15" s="23"/>
-      <c r="YH15" s="23"/>
-      <c r="YI15" s="23"/>
-      <c r="YJ15" s="23"/>
-      <c r="YK15" s="23"/>
-      <c r="YL15" s="23"/>
-      <c r="YM15" s="23"/>
-      <c r="YN15" s="23"/>
-      <c r="YO15" s="23"/>
-      <c r="YP15" s="23"/>
-      <c r="YQ15" s="23"/>
-      <c r="YR15" s="23"/>
-      <c r="YS15" s="23"/>
-      <c r="YT15" s="23"/>
-      <c r="YU15" s="23"/>
-      <c r="YV15" s="23"/>
-      <c r="YW15" s="23"/>
-      <c r="YX15" s="23"/>
-      <c r="YY15" s="23"/>
-      <c r="YZ15" s="23"/>
-      <c r="ZA15" s="23"/>
-      <c r="ZB15" s="23"/>
-      <c r="ZC15" s="23"/>
-      <c r="ZD15" s="23"/>
-      <c r="ZE15" s="23"/>
-      <c r="ZF15" s="23"/>
-      <c r="ZG15" s="23"/>
-      <c r="ZH15" s="23"/>
-      <c r="ZI15" s="23"/>
-      <c r="ZJ15" s="23"/>
-      <c r="ZK15" s="23"/>
-      <c r="ZL15" s="23"/>
-      <c r="ZM15" s="23"/>
-      <c r="ZN15" s="23"/>
-      <c r="ZO15" s="23"/>
-      <c r="ZP15" s="23"/>
-      <c r="ZQ15" s="23"/>
-      <c r="ZR15" s="23"/>
-      <c r="ZS15" s="23"/>
-      <c r="ZT15" s="23"/>
-      <c r="ZU15" s="23"/>
-      <c r="ZV15" s="23"/>
-      <c r="ZW15" s="23"/>
-      <c r="ZX15" s="23"/>
-      <c r="ZY15" s="23"/>
-      <c r="ZZ15" s="23"/>
-      <c r="AAA15" s="23"/>
-      <c r="AAB15" s="23"/>
-      <c r="AAC15" s="23"/>
-      <c r="AAD15" s="23"/>
-      <c r="AAE15" s="23"/>
-      <c r="AAF15" s="23"/>
-      <c r="AAG15" s="23"/>
-      <c r="AAH15" s="23"/>
-      <c r="AAI15" s="23"/>
-      <c r="AAJ15" s="23"/>
-      <c r="AAK15" s="23"/>
-      <c r="AAL15" s="23"/>
-      <c r="AAM15" s="23"/>
-      <c r="AAN15" s="23"/>
-      <c r="AAO15" s="23"/>
-      <c r="AAP15" s="23"/>
-      <c r="AAQ15" s="23"/>
-      <c r="AAR15" s="23"/>
-      <c r="AAS15" s="23"/>
-      <c r="AAT15" s="23"/>
-      <c r="AAU15" s="23"/>
-      <c r="AAV15" s="23"/>
-      <c r="AAW15" s="23"/>
-      <c r="AAX15" s="23"/>
-      <c r="AAY15" s="23"/>
-      <c r="AAZ15" s="23"/>
-      <c r="ABA15" s="23"/>
-      <c r="ABB15" s="23"/>
-      <c r="ABC15" s="23"/>
-      <c r="ABD15" s="23"/>
-      <c r="ABE15" s="23"/>
-      <c r="ABF15" s="23"/>
-      <c r="ABG15" s="23"/>
-      <c r="ABH15" s="23"/>
-      <c r="ABI15" s="23"/>
-      <c r="ABJ15" s="23"/>
-      <c r="ABK15" s="23"/>
-      <c r="ABL15" s="23"/>
-      <c r="ABM15" s="23"/>
-      <c r="ABN15" s="23"/>
-      <c r="ABO15" s="23"/>
-      <c r="ABP15" s="23"/>
-      <c r="ABQ15" s="23"/>
-      <c r="ABR15" s="23"/>
-      <c r="ABS15" s="23"/>
-      <c r="ABT15" s="23"/>
-      <c r="ABU15" s="23"/>
-      <c r="ABV15" s="23"/>
-      <c r="ABW15" s="23"/>
-      <c r="ABX15" s="23"/>
-      <c r="ABY15" s="23"/>
-      <c r="ABZ15" s="23"/>
-      <c r="ACA15" s="23"/>
-      <c r="ACB15" s="23"/>
-      <c r="ACC15" s="23"/>
-      <c r="ACD15" s="23"/>
-      <c r="ACE15" s="23"/>
-      <c r="ACF15" s="23"/>
-      <c r="ACG15" s="23"/>
-      <c r="ACH15" s="23"/>
-      <c r="ACI15" s="23"/>
-      <c r="ACJ15" s="23"/>
-      <c r="ACK15" s="23"/>
-      <c r="ACL15" s="23"/>
-      <c r="ACM15" s="23"/>
-      <c r="ACN15" s="23"/>
-      <c r="ACO15" s="23"/>
-      <c r="ACP15" s="23"/>
-      <c r="ACQ15" s="23"/>
-      <c r="ACR15" s="23"/>
-      <c r="ACS15" s="23"/>
-      <c r="ACT15" s="23"/>
-      <c r="ACU15" s="23"/>
-      <c r="ACV15" s="23"/>
-      <c r="ACW15" s="23"/>
-      <c r="ACX15" s="23"/>
-      <c r="ACY15" s="23"/>
-      <c r="ACZ15" s="23"/>
-      <c r="ADA15" s="23"/>
-      <c r="ADB15" s="23"/>
-      <c r="ADC15" s="23"/>
-      <c r="ADD15" s="23"/>
-      <c r="ADE15" s="23"/>
-      <c r="ADF15" s="23"/>
-      <c r="ADG15" s="23"/>
-      <c r="ADH15" s="23"/>
-      <c r="ADI15" s="23"/>
-      <c r="ADJ15" s="23"/>
-      <c r="ADK15" s="23"/>
-      <c r="ADL15" s="23"/>
-      <c r="ADM15" s="23"/>
-      <c r="ADN15" s="23"/>
-      <c r="ADO15" s="23"/>
-      <c r="ADP15" s="23"/>
-      <c r="ADQ15" s="23"/>
-      <c r="ADR15" s="23"/>
-      <c r="ADS15" s="23"/>
-      <c r="ADT15" s="23"/>
-      <c r="ADU15" s="23"/>
-      <c r="ADV15" s="23"/>
-      <c r="ADW15" s="23"/>
-      <c r="ADX15" s="23"/>
-      <c r="ADY15" s="23"/>
-      <c r="ADZ15" s="23"/>
-      <c r="AEA15" s="23"/>
-      <c r="AEB15" s="23"/>
-      <c r="AEC15" s="23"/>
-      <c r="AED15" s="23"/>
-      <c r="AEE15" s="23"/>
-      <c r="AEF15" s="23"/>
-      <c r="AEG15" s="23"/>
-      <c r="AEH15" s="23"/>
-      <c r="AEI15" s="23"/>
-      <c r="AEJ15" s="23"/>
-      <c r="AEK15" s="23"/>
-      <c r="AEL15" s="23"/>
-      <c r="AEM15" s="23"/>
-      <c r="AEN15" s="23"/>
-      <c r="AEO15" s="23"/>
-      <c r="AEP15" s="23"/>
-      <c r="AEQ15" s="23"/>
-      <c r="AER15" s="23"/>
-      <c r="AES15" s="23"/>
-      <c r="AET15" s="23"/>
-      <c r="AEU15" s="23"/>
-      <c r="AEV15" s="23"/>
-      <c r="AEW15" s="23"/>
-      <c r="AEX15" s="23"/>
-      <c r="AEY15" s="23"/>
-      <c r="AEZ15" s="23"/>
-      <c r="AFA15" s="23"/>
-      <c r="AFB15" s="23"/>
-      <c r="AFC15" s="23"/>
-      <c r="AFD15" s="23"/>
-      <c r="AFE15" s="23"/>
-      <c r="AFF15" s="23"/>
-      <c r="AFG15" s="23"/>
-      <c r="AFH15" s="23"/>
-      <c r="AFI15" s="23"/>
-      <c r="AFJ15" s="23"/>
-      <c r="AFK15" s="23"/>
-      <c r="AFL15" s="23"/>
-      <c r="AFM15" s="23"/>
-      <c r="AFN15" s="23"/>
-      <c r="AFO15" s="23"/>
-      <c r="AFP15" s="23"/>
-      <c r="AFQ15" s="23"/>
-      <c r="AFR15" s="23"/>
-      <c r="AFS15" s="23"/>
-      <c r="AFT15" s="23"/>
-      <c r="AFU15" s="23"/>
-      <c r="AFV15" s="23"/>
-      <c r="AFW15" s="23"/>
-      <c r="AFX15" s="23"/>
-      <c r="AFY15" s="23"/>
-      <c r="AFZ15" s="23"/>
     </row>
     <row r="17" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="12" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="12"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
@@ -2653,20 +1908,16 @@
       <c r="L18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="1"/>
+      <c r="M18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2674,40 +1925,36 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>29</v>
+      <c r="E19" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="F19" s="4">
         <v>240</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="23">
         <v>1E-4</v>
       </c>
       <c r="I19" s="4">
         <v>16</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="23">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="23">
         <v>200</v>
       </c>
-      <c r="M19" s="12">
-        <v>416</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3">
         <v>24</v>
       </c>
-      <c r="R19" s="3">
+      <c r="P19" s="3">
         <v>0.87990000000000002</v>
       </c>
     </row>
@@ -2715,28 +1962,28 @@
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="4">
         <v>240</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="4">
         <v>16</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3">
+      <c r="L20" s="24"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3">
         <v>38</v>
       </c>
-      <c r="R20" s="3">
+      <c r="P20" s="3">
         <v>0.88602999999999998</v>
       </c>
     </row>
@@ -2744,28 +1991,28 @@
       <c r="D21" s="4">
         <v>3</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F21" s="4">
         <v>240</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="4">
         <v>32</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3">
+      <c r="L21" s="24"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3">
         <v>168</v>
       </c>
-      <c r="R21" s="3">
+      <c r="P21" s="3">
         <v>0.88941999999999999</v>
       </c>
     </row>
@@ -2773,145 +2020,147 @@
       <c r="D22" s="4">
         <v>4</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="4">
         <v>240</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="4">
         <v>32</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3">
+      <c r="L22" s="24"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
         <v>29</v>
       </c>
-      <c r="R22" s="3">
+      <c r="P22" s="3">
         <v>0.88482000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:74" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21">
+    <row r="23" spans="1:74" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" s="12">
         <v>5</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="21">
+      <c r="E23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="12">
         <v>240</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="21">
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="12">
         <v>64</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21">
+      <c r="J23" s="24"/>
+      <c r="K23" s="12">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7">
+      <c r="L23" s="24"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
         <v>65</v>
       </c>
-      <c r="R23" s="7">
+      <c r="P23" s="7">
         <v>0.88971</v>
       </c>
+      <c r="Q23"/>
+      <c r="R23"/>
       <c r="S23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="23"/>
-      <c r="AR23" s="23"/>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="23"/>
-      <c r="AU23" s="23"/>
-      <c r="AV23" s="23"/>
-      <c r="AW23" s="23"/>
-      <c r="AX23" s="23"/>
-      <c r="AY23" s="23"/>
-      <c r="AZ23" s="23"/>
-      <c r="BA23" s="23"/>
-      <c r="BB23" s="23"/>
-      <c r="BC23" s="23"/>
-      <c r="BD23" s="23"/>
-      <c r="BE23" s="23"/>
-      <c r="BF23" s="23"/>
-      <c r="BG23" s="23"/>
-      <c r="BH23" s="23"/>
-      <c r="BI23" s="23"/>
-      <c r="BJ23" s="23"/>
-      <c r="BK23" s="23"/>
-      <c r="BL23" s="23"/>
-      <c r="BM23" s="23"/>
-      <c r="BN23" s="23"/>
-      <c r="BO23" s="23"/>
-      <c r="BP23" s="23"/>
-      <c r="BQ23" s="23"/>
-      <c r="BR23" s="23"/>
-      <c r="BS23" s="23"/>
-      <c r="BT23" s="23"/>
-      <c r="BU23" s="23"/>
-      <c r="BV23" s="23"/>
-    </row>
-    <row r="24" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D24" s="4">
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
+      <c r="BF23"/>
+      <c r="BG23"/>
+      <c r="BH23"/>
+      <c r="BI23"/>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
+      <c r="BM23"/>
+      <c r="BN23"/>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+    </row>
+    <row r="24" spans="1:74" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D24" s="31">
         <v>6</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="4">
-        <v>240</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="4">
+      <c r="E24" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="31">
+        <v>256</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="31">
         <v>64</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="24"/>
+      <c r="K24" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3">
+      <c r="L24" s="24"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33">
         <v>178</v>
       </c>
-      <c r="R24" s="3">
+      <c r="P24" s="33">
         <v>0.88748000000000005</v>
       </c>
     </row>
@@ -2919,28 +2168,28 @@
       <c r="D25" s="4">
         <v>7</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="F25" s="4">
         <v>256</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="4">
         <v>16</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3">
+      <c r="L25" s="24"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3">
         <v>24</v>
       </c>
-      <c r="R25" s="3">
+      <c r="P25" s="3">
         <v>0.87990000000000002</v>
       </c>
     </row>
@@ -2948,28 +2197,28 @@
       <c r="D26" s="4">
         <v>8</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="F26" s="4">
         <v>256</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="4">
         <v>16</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3">
+      <c r="L26" s="24"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3">
         <v>38</v>
       </c>
-      <c r="R26" s="3">
+      <c r="P26" s="3">
         <v>0.88602999999999998</v>
       </c>
     </row>
@@ -2977,68 +2226,86 @@
       <c r="D27" s="4">
         <v>9</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="F27" s="4">
         <v>256</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="4">
         <v>32</v>
       </c>
-      <c r="J27" s="12"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="4">
         <v>0.93700000000000006</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3">
+      <c r="L27" s="24"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
         <v>29</v>
       </c>
-      <c r="R27" s="3">
+      <c r="P27" s="3">
         <v>0.87646000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:74" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="25"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
+    <row r="28" spans="1:74" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4">
+        <v>256</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="4">
+        <v>32</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="25"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3">
+        <v>70</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.87980000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:74" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H32" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="14">
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M4:P4"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="H19:H27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="L19:L27"/>
-    <mergeCell ref="M19:M27"/>
-    <mergeCell ref="E19:E27"/>
+    <mergeCell ref="G19:G28"/>
+    <mergeCell ref="H19:H28"/>
+    <mergeCell ref="J19:J28"/>
+    <mergeCell ref="L19:L28"/>
+    <mergeCell ref="E17:L17"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:M4"/>
-    <mergeCell ref="O4:R4"/>
     <mergeCell ref="G6:G15"/>
     <mergeCell ref="L6:L15"/>
-    <mergeCell ref="M6:M15"/>
     <mergeCell ref="H6:H15"/>
     <mergeCell ref="J6:J15"/>
-    <mergeCell ref="E6:E15"/>
+    <mergeCell ref="E4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
